--- a/Proyecto_1/Proyecto Normal/Enlaces.xlsx
+++ b/Proyecto_1/Proyecto Normal/Enlaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14746f92f6dda876/Documentos/Redes 2/Tabajos Clase/Repositorio/REDES2_1S2023_G8/Proyecto No. 1/Proyecto Normal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14746f92f6dda876/Documentos/Redes 2/Tabajos Clase/Repositorio/REDES2_1S2023_G8/Proyecto_1/Proyecto Normal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{A0B8DCCB-46AC-4547-BB7C-B4AA9CC4B0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CBF721B-46F9-4548-ABDE-33B22A03D2FA}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{A0B8DCCB-46AC-4547-BB7C-B4AA9CC4B0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92CF918C-7B5C-4493-BE67-8821D3F2A27C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3693C75-A27A-42AC-8B5F-E64D960EDB70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3693C75-A27A-42AC-8B5F-E64D960EDB70}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -585,6 +585,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -593,16 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729BFA06-5E88-4877-A345-01385B9E28D2}">
   <dimension ref="A2:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,6 +937,7 @@
     <col min="15" max="15" width="14.21875" style="16" customWidth="1"/>
     <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -1017,10 +1018,10 @@
       <c r="Q4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="17" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1048,10 +1049,10 @@
       <c r="N5" s="1"/>
       <c r="O5" s="14"/>
       <c r="Q5" s="24"/>
-      <c r="R5" t="s">
+      <c r="R5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="17" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1074,13 +1075,13 @@
       <c r="K6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="18" t="s">
         <v>81</v>
       </c>
       <c r="O6" s="14" t="s">
@@ -1089,10 +1090,10 @@
       <c r="Q6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="17" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1115,17 +1116,17 @@
       <c r="K7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="19"/>
       <c r="O7" s="14" t="s">
         <v>80</v>
       </c>
       <c r="Q7" s="24"/>
-      <c r="R7" t="s">
+      <c r="R7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="17" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1148,19 +1149,19 @@
       <c r="K8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="14" t="s">
         <v>79</v>
       </c>
       <c r="Q8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="17" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1183,17 +1184,17 @@
       <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="14" t="s">
         <v>79</v>
       </c>
       <c r="Q9" s="24"/>
-      <c r="R9" t="s">
+      <c r="R9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="17" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1216,10 +1217,10 @@
       <c r="K10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N10" s="1"/>
@@ -1229,10 +1230,10 @@
       <c r="Q10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="17" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1255,17 +1256,17 @@
       <c r="K11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="1"/>
       <c r="O11" s="14" t="s">
         <v>79</v>
       </c>
       <c r="Q11" s="24"/>
-      <c r="R11" t="s">
+      <c r="R11" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="17" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1288,8 +1289,8 @@
       <c r="K12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="1"/>
       <c r="O12" s="14" t="s">
         <v>79</v>
@@ -1314,8 +1315,8 @@
       <c r="K13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="1"/>
       <c r="O13" s="14" t="s">
         <v>79</v>
@@ -1323,10 +1324,10 @@
       <c r="Q13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="17" t="s">
         <v>98</v>
       </c>
       <c r="T13" t="s">
@@ -1352,17 +1353,17 @@
       <c r="K14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="1"/>
       <c r="O14" s="14" t="s">
         <v>79</v>
       </c>
       <c r="Q14" s="24"/>
-      <c r="R14" t="s">
+      <c r="R14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="17" t="s">
         <v>109</v>
       </c>
       <c r="T14" t="s">
@@ -1388,8 +1389,8 @@
       <c r="K15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
       <c r="N15" s="1"/>
       <c r="O15" s="14" t="s">
         <v>79</v>
@@ -1397,10 +1398,10 @@
       <c r="Q15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="17" t="s">
         <v>101</v>
       </c>
       <c r="U15" t="s">
@@ -1439,10 +1440,10 @@
       <c r="K16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N16" s="1"/>
@@ -1450,10 +1451,10 @@
         <v>79</v>
       </c>
       <c r="Q16" s="24"/>
-      <c r="R16" t="s">
+      <c r="R16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="17" t="s">
         <v>102</v>
       </c>
       <c r="U16" t="s">
@@ -1490,8 +1491,8 @@
       <c r="K17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="1"/>
       <c r="O17" s="14" t="s">
         <v>79</v>
@@ -1499,10 +1500,10 @@
       <c r="Q17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="17" t="s">
         <v>103</v>
       </c>
       <c r="U17" t="s">
@@ -1536,17 +1537,17 @@
       <c r="K18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="1"/>
       <c r="O18" s="14" t="s">
         <v>79</v>
       </c>
       <c r="Q18" s="24"/>
-      <c r="R18" t="s">
+      <c r="R18" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="17" t="s">
         <v>104</v>
       </c>
       <c r="U18" t="s">
@@ -1569,8 +1570,8 @@
       <c r="K19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="1"/>
       <c r="O19" s="14" t="s">
         <v>79</v>
@@ -1578,10 +1579,10 @@
       <c r="Q19" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="17" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1595,17 +1596,17 @@
       <c r="K20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
       <c r="N20" s="1"/>
       <c r="O20" s="14" t="s">
         <v>79</v>
       </c>
       <c r="Q20" s="24"/>
-      <c r="R20" t="s">
+      <c r="R20" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="17" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1619,8 +1620,8 @@
       <c r="K21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="1"/>
       <c r="O21" s="14" t="s">
         <v>79</v>
@@ -1639,10 +1640,10 @@
       <c r="K22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N22" s="1"/>
@@ -1652,10 +1653,10 @@
       <c r="Q22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="17" t="s">
         <v>107</v>
       </c>
       <c r="T22" t="s">
@@ -1675,17 +1676,17 @@
       <c r="K23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="1"/>
       <c r="O23" s="14" t="s">
         <v>79</v>
       </c>
       <c r="Q23" s="24"/>
-      <c r="R23" t="s">
+      <c r="R23" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="17" t="s">
         <v>108</v>
       </c>
       <c r="T23" t="s">
@@ -1705,8 +1706,8 @@
       <c r="K24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="1"/>
       <c r="O24" s="14" t="s">
         <v>79</v>
@@ -1714,10 +1715,10 @@
       <c r="Q24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="17" t="s">
         <v>110</v>
       </c>
       <c r="U24" t="s">
@@ -1742,10 +1743,10 @@
       <c r="N25" s="1"/>
       <c r="O25" s="14"/>
       <c r="Q25" s="24"/>
-      <c r="R25" t="s">
+      <c r="R25" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" s="17" t="s">
         <v>111</v>
       </c>
       <c r="U25" t="s">
@@ -1771,10 +1772,10 @@
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N26" s="1"/>
@@ -1784,10 +1785,10 @@
       <c r="Q26" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="R26" t="s">
+      <c r="R26" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26" s="17" t="s">
         <v>112</v>
       </c>
       <c r="U26" t="s">
@@ -1813,17 +1814,17 @@
       <c r="K27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="1"/>
       <c r="O27" s="14" t="s">
         <v>79</v>
       </c>
       <c r="Q27" s="24"/>
-      <c r="R27" t="s">
+      <c r="R27" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="17" t="s">
         <v>113</v>
       </c>
       <c r="U27" t="s">
@@ -1849,8 +1850,8 @@
       <c r="K28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="1"/>
       <c r="O28" s="14" t="s">
         <v>79</v>
@@ -1858,10 +1859,10 @@
       <c r="Q28" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="R28" t="s">
+      <c r="R28" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="17" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1878,17 +1879,17 @@
       <c r="K29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="1"/>
       <c r="O29" s="14" t="s">
         <v>79</v>
       </c>
       <c r="Q29" s="24"/>
-      <c r="R29" t="s">
+      <c r="R29" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1905,8 +1906,8 @@
       <c r="K30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="1"/>
       <c r="O30" s="14" t="s">
         <v>79</v>
@@ -1922,10 +1923,10 @@
       <c r="K31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N31" s="1"/>
@@ -1943,8 +1944,8 @@
       <c r="K32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="1"/>
       <c r="O32" s="14" t="s">
         <v>79</v>
@@ -1960,10 +1961,10 @@
       <c r="K33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="19" t="s">
+      <c r="M33" s="22" t="s">
         <v>77</v>
       </c>
       <c r="N33" s="1"/>
@@ -1981,8 +1982,8 @@
       <c r="K34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
       <c r="N34" s="1"/>
       <c r="O34" s="14" t="s">
         <v>79</v>
@@ -1998,10 +1999,10 @@
       <c r="K35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M35" s="18" t="s">
+      <c r="M35" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N35" s="1"/>
@@ -2019,8 +2020,8 @@
       <c r="K36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
       <c r="N36" s="1"/>
       <c r="O36" s="14" t="s">
         <v>79</v>
@@ -2036,8 +2037,8 @@
       <c r="K37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
       <c r="N37" s="1"/>
       <c r="O37" s="14" t="s">
         <v>79</v>
@@ -2053,8 +2054,8 @@
       <c r="K38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
       <c r="N38" s="1"/>
       <c r="O38" s="14" t="s">
         <v>79</v>
@@ -2070,10 +2071,10 @@
       <c r="K39" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L39" s="18" t="s">
+      <c r="L39" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="18" t="s">
+      <c r="M39" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N39" s="1"/>
@@ -2091,8 +2092,8 @@
       <c r="K40" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
       <c r="N40" s="1"/>
       <c r="O40" s="14" t="s">
         <v>80</v>
@@ -2108,8 +2109,8 @@
       <c r="K41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
       <c r="N41" s="1"/>
       <c r="O41" s="14" t="s">
         <v>80</v>
@@ -2142,10 +2143,10 @@
       <c r="K43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L43" s="18" t="s">
+      <c r="L43" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M43" s="18" t="s">
+      <c r="M43" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N43" s="1"/>
@@ -2163,8 +2164,8 @@
       <c r="K44" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
       <c r="N44" s="1"/>
       <c r="O44" s="14" t="s">
         <v>80</v>
@@ -2191,10 +2192,10 @@
       <c r="K46" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="18" t="s">
+      <c r="L46" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="M46" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N46" s="1"/>
@@ -2212,8 +2213,8 @@
       <c r="K47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
       <c r="N47" s="1"/>
       <c r="O47" s="14" t="s">
         <v>79</v>
@@ -2229,8 +2230,8 @@
       <c r="K48" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
       <c r="N48" s="1"/>
       <c r="O48" s="14" t="s">
         <v>79</v>
@@ -2246,8 +2247,8 @@
       <c r="K49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
       <c r="N49" s="1"/>
       <c r="O49" s="14" t="s">
         <v>79</v>
@@ -2263,8 +2264,8 @@
       <c r="K50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
       <c r="N50" s="1"/>
       <c r="O50" s="14" t="s">
         <v>79</v>
@@ -2280,10 +2281,10 @@
       <c r="K51" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L51" s="18" t="s">
+      <c r="L51" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M51" s="18" t="s">
+      <c r="M51" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N51" s="1"/>
@@ -2301,8 +2302,8 @@
       <c r="K52" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
       <c r="N52" s="1"/>
       <c r="O52" s="14" t="s">
         <v>79</v>
@@ -2318,10 +2319,10 @@
       <c r="K53" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L53" s="18" t="s">
+      <c r="L53" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="M53" s="18" t="s">
+      <c r="M53" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N53" s="1"/>
@@ -2339,8 +2340,8 @@
       <c r="K54" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
       <c r="N54" s="1"/>
       <c r="O54" s="14" t="s">
         <v>79</v>
@@ -2356,10 +2357,10 @@
       <c r="K55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="18" t="s">
+      <c r="L55" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="18" t="s">
+      <c r="M55" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N55" s="1"/>
@@ -2377,8 +2378,8 @@
       <c r="K56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
       <c r="N56" s="1"/>
       <c r="O56" s="14" t="s">
         <v>79</v>
@@ -2394,8 +2395,8 @@
       <c r="K57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
       <c r="N57" s="1"/>
       <c r="O57" s="14" t="s">
         <v>79</v>
@@ -2411,8 +2412,8 @@
       <c r="K58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
       <c r="N58" s="1"/>
       <c r="O58" s="14" t="s">
         <v>79</v>
@@ -2428,10 +2429,10 @@
       <c r="K59" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L59" s="18" t="s">
+      <c r="L59" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M59" s="18" t="s">
+      <c r="M59" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N59" s="1"/>
@@ -2449,8 +2450,8 @@
       <c r="K60" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
       <c r="N60" s="1"/>
       <c r="O60" s="14" t="s">
         <v>80</v>
@@ -2466,8 +2467,8 @@
       <c r="K61" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
       <c r="N61" s="1"/>
       <c r="O61" s="14" t="s">
         <v>80</v>
@@ -2483,10 +2484,10 @@
       <c r="K62" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L62" s="18" t="s">
+      <c r="L62" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M62" s="18" t="s">
+      <c r="M62" s="21" t="s">
         <v>77</v>
       </c>
       <c r="N62" s="1"/>
@@ -2504,8 +2505,8 @@
       <c r="K63" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
       <c r="N63" s="1"/>
       <c r="O63" s="14" t="s">
         <v>80</v>
@@ -2521,8 +2522,8 @@
       <c r="K64" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
       <c r="N64" s="1"/>
       <c r="O64" s="14" t="s">
         <v>80</v>
@@ -2530,18 +2531,23 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="L16:L21"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="L46:L50"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L55:L58"/>
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="L62:L64"/>
     <mergeCell ref="L59:L61"/>
@@ -2558,23 +2564,18 @@
     <mergeCell ref="M43:M44"/>
     <mergeCell ref="M46:M50"/>
     <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M58"/>
-    <mergeCell ref="L46:L50"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="L10:L15"/>
-    <mergeCell ref="L16:L21"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q24:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
